--- a/files/Ideas_1.xlsx
+++ b/files/Ideas_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://belgiumcampusacza-my.sharepoint.com/personal/576378_student_belgiumcampus_ac_za/Documents/3de jaar/prg 381/assignments/project/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{08B32968-1421-4795-B2A8-96F6A3FCDC80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C376BF49-00C1-469D-B872-7BF51C3B6AF8}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{08B32968-1421-4795-B2A8-96F6A3FCDC80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2224794-02EC-4B9B-9AA8-3095800D3214}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAE662C-2419-4F8E-9159-F9318AD14A52}"/>
   </bookViews>
@@ -876,13 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,8 +1350,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1578,7 +1578,7 @@
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
       <c r="L10" s="81"/>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="36" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="15">
@@ -1620,7 +1620,7 @@
       <c r="J12" s="79"/>
       <c r="K12" s="79"/>
       <c r="L12" s="79"/>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="38" t="s">
         <v>7</v>
       </c>
       <c r="N12" s="11">
@@ -1733,7 +1733,7 @@
       <c r="E19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="N33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:14">
@@ -1888,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="N34" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14">
@@ -1905,7 +1905,7 @@
       <c r="J35" s="81"/>
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
-      <c r="M35" s="38" t="s">
+      <c r="M35" s="36" t="s">
         <v>15</v>
       </c>
       <c r="N35" s="15"/>
@@ -1924,7 +1924,7 @@
       <c r="J36" s="83"/>
       <c r="K36" s="83"/>
       <c r="L36" s="83"/>
-      <c r="M36" s="36"/>
+      <c r="M36" s="37"/>
       <c r="N36" s="27"/>
     </row>
     <row r="37" spans="2:14">
